--- a/app/config/tables/beneficiaries/forms/distribution_form/distribution_form.xlsx
+++ b/app/config/tables/beneficiaries/forms/distribution_form/distribution_form.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="15100" yWindow="4980" windowWidth="33740" windowHeight="18700" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="model" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="62">
   <si>
     <t>type</t>
   </si>
@@ -60,9 +60,6 @@
     <t>beneficiary_code</t>
   </si>
   <si>
-    <t>envelope_code</t>
-  </si>
-  <si>
     <t>date_distributed</t>
   </si>
   <si>
@@ -141,9 +138,6 @@
     <t>Take a picture of the beneficiary card now</t>
   </si>
   <si>
-    <t>Scan the envelope barcode</t>
-  </si>
-  <si>
     <t>instance_name</t>
   </si>
   <si>
@@ -181,6 +175,39 @@
   </si>
   <si>
     <t>confirm_distribution</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>flag</t>
+  </si>
+  <si>
+    <t>distributions</t>
+  </si>
+  <si>
+    <t>item_code</t>
+  </si>
+  <si>
+    <t>Scan the item barcode</t>
+  </si>
+  <si>
+    <t>distributions_received</t>
+  </si>
+  <si>
+    <t>remaining_distributions</t>
+  </si>
+  <si>
+    <t>scanned_item_code</t>
+  </si>
+  <si>
+    <t>mobile_provider</t>
+  </si>
+  <si>
+    <t>hh_size</t>
   </si>
 </sst>
 </file>
@@ -368,7 +395,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -390,6 +417,8 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -731,10 +760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="26" defaultRowHeight="23" x14ac:dyDescent="0"/>
@@ -773,7 +802,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -826,15 +855,15 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="20" t="s">
         <v>30</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="20" t="s">
         <v>11</v>
@@ -842,42 +871,42 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -885,7 +914,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -893,7 +922,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -901,7 +930,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -909,7 +938,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -917,7 +946,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -925,7 +954,79 @@
         <v>2</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -957,26 +1058,26 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>17</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="7">
         <v>20150212</v>
@@ -984,26 +1085,26 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1021,7 +1122,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0"/>
@@ -1040,58 +1141,58 @@
         <v>1</v>
       </c>
       <c r="C1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>24</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>26</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="D3" s="15" t="s">
         <v>35</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="C4" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" s="15"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="D5" s="15"/>
     </row>
@@ -1138,13 +1239,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
-        <v>29</v>
-      </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
